--- a/Original/CN/Game/Category.xlsx
+++ b/Original/CN/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Original/CN/Game/Category.xlsx
+++ b/Original/CN/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">melee</t>
   </si>
   <si>
-    <t xml:space="preserve">Melee</t>
+    <t xml:space="preserve">Melee Weapon</t>
   </si>
   <si>
     <t xml:space="preserve">近接武器</t>

--- a/Original/CN/Game/Category.xlsx
+++ b/Original/CN/Game/Category.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="527">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>
@@ -317,6 +317,15 @@
     <t xml:space="preserve">スープ</t>
   </si>
   <si>
+    <t xml:space="preserve">meal_lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ランチ</t>
+  </si>
+  <si>
     <t xml:space="preserve">foodstuff</t>
   </si>
   <si>
@@ -1235,6 +1244,9 @@
     <t xml:space="preserve">Alpha 18.1</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.183</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.16</t>
   </si>
   <si>
@@ -1349,10 +1361,13 @@
     <t xml:space="preserve">汤</t>
   </si>
   <si>
+    <t xml:space="preserve">套餐</t>
+  </si>
+  <si>
     <t xml:space="preserve">谷物</t>
   </si>
   <si>
-    <t xml:space="preserve">面团</t>
+    <t xml:space="preserve">面粉</t>
   </si>
   <si>
     <t xml:space="preserve">蔬菜</t>
@@ -1677,10 +1692,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C3" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1694,10 +1709,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C4" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1711,10 +1726,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1728,10 +1743,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C6" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1745,10 +1760,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1762,7 +1777,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1779,7 +1794,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1796,10 +1811,10 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C10" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1813,10 +1828,10 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C11" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -1830,7 +1845,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -1847,10 +1862,10 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C13" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
@@ -1864,7 +1879,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -1881,7 +1896,7 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -1898,10 +1913,10 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C16" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
@@ -1915,10 +1930,10 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C17" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
@@ -1932,10 +1947,10 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C18" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D18" t="s">
         <v>47</v>
@@ -1949,10 +1964,10 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C19" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
@@ -1966,10 +1981,10 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C20" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -1983,10 +1998,10 @@
         <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C21" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
@@ -2000,7 +2015,7 @@
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
@@ -2017,10 +2032,10 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C23" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D23" t="s">
         <v>62</v>
@@ -2034,7 +2049,7 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
@@ -2051,10 +2066,10 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C25" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
@@ -2068,10 +2083,10 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C26" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D26" t="s">
         <v>71</v>
@@ -2085,10 +2100,10 @@
         <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C27" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D27" t="s">
         <v>74</v>
@@ -2102,10 +2117,10 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C28" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D28" t="s">
         <v>77</v>
@@ -2119,10 +2134,10 @@
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C29" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
@@ -2136,10 +2151,10 @@
         <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C30" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D30" t="s">
         <v>83</v>
@@ -2153,10 +2168,10 @@
         <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C31" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D31" t="s">
         <v>86</v>
@@ -2170,10 +2185,10 @@
         <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C32" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D32" t="s">
         <v>89</v>
@@ -2187,10 +2202,10 @@
         <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C33" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D33" t="s">
         <v>92</v>
@@ -2204,10 +2219,10 @@
         <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C34" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D34" t="s">
         <v>95</v>
@@ -2221,10 +2236,10 @@
         <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C35" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D35" t="s">
         <v>98</v>
@@ -2238,10 +2253,10 @@
         <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="D36" t="s">
         <v>101</v>
@@ -2255,10 +2270,10 @@
         <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C37" t="s">
-        <v>444</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
         <v>104</v>
@@ -2272,10 +2287,10 @@
         <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C38" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D38" t="s">
         <v>107</v>
@@ -2289,10 +2304,10 @@
         <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>450</v>
       </c>
       <c r="D39" t="s">
         <v>110</v>
@@ -2306,10 +2321,10 @@
         <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C40" t="s">
-        <v>446</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
         <v>113</v>
@@ -2323,10 +2338,10 @@
         <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C41" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D41" t="s">
         <v>116</v>
@@ -2340,10 +2355,10 @@
         <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C42" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D42" t="s">
         <v>119</v>
@@ -2357,10 +2372,10 @@
         <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="C43" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D43" t="s">
         <v>122</v>
@@ -2374,10 +2389,10 @@
         <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C44" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D44" t="s">
         <v>125</v>
@@ -2391,10 +2406,10 @@
         <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C45" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D45" t="s">
         <v>128</v>
@@ -2408,10 +2423,10 @@
         <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C46" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D46" t="s">
         <v>131</v>
@@ -2425,33 +2440,33 @@
         <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C47" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" t="s">
+        <v>403</v>
+      </c>
+      <c r="C48" t="s">
+        <v>457</v>
+      </c>
+      <c r="D48" t="s">
         <v>134</v>
       </c>
-      <c r="B48" t="s">
-        <v>408</v>
-      </c>
-      <c r="C48" t="s">
-        <v>453</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>135</v>
-      </c>
-      <c r="E48" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="49">
@@ -2459,10 +2474,10 @@
         <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C49" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D49" t="s">
         <v>138</v>
@@ -2476,10 +2491,10 @@
         <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C50" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D50" t="s">
         <v>141</v>
@@ -2493,10 +2508,10 @@
         <v>143</v>
       </c>
       <c r="B51" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C51" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D51" t="s">
         <v>144</v>
@@ -2510,10 +2525,10 @@
         <v>146</v>
       </c>
       <c r="B52" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>461</v>
       </c>
       <c r="D52" t="s">
         <v>147</v>
@@ -2527,10 +2542,10 @@
         <v>149</v>
       </c>
       <c r="B53" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C53" t="s">
-        <v>457</v>
+        <v>151</v>
       </c>
       <c r="D53" t="s">
         <v>150</v>
@@ -2544,10 +2559,10 @@
         <v>152</v>
       </c>
       <c r="B54" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C54" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D54" t="s">
         <v>153</v>
@@ -2561,10 +2576,10 @@
         <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>463</v>
       </c>
       <c r="D55" t="s">
         <v>156</v>
@@ -2578,10 +2593,10 @@
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C56" t="s">
-        <v>459</v>
+        <v>160</v>
       </c>
       <c r="D56" t="s">
         <v>159</v>
@@ -2595,10 +2610,10 @@
         <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="C57" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D57" t="s">
         <v>162</v>
@@ -2612,10 +2627,10 @@
         <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>465</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -2629,10 +2644,10 @@
         <v>167</v>
       </c>
       <c r="B59" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C59" t="s">
-        <v>461</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
         <v>168</v>
@@ -2646,10 +2661,10 @@
         <v>170</v>
       </c>
       <c r="B60" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C60" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D60" t="s">
         <v>171</v>
@@ -2663,10 +2678,10 @@
         <v>173</v>
       </c>
       <c r="B61" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C61" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D61" t="s">
         <v>174</v>
@@ -2680,10 +2695,10 @@
         <v>176</v>
       </c>
       <c r="B62" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C62" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D62" t="s">
         <v>177</v>
@@ -2697,10 +2712,10 @@
         <v>179</v>
       </c>
       <c r="B63" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
+        <v>469</v>
       </c>
       <c r="D63" t="s">
         <v>180</v>
@@ -2714,7 +2729,7 @@
         <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C64" t="s">
         <v>184</v>
@@ -2731,10 +2746,10 @@
         <v>185</v>
       </c>
       <c r="B65" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C65" t="s">
-        <v>465</v>
+        <v>187</v>
       </c>
       <c r="D65" t="s">
         <v>186</v>
@@ -2748,10 +2763,10 @@
         <v>188</v>
       </c>
       <c r="B66" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C66" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D66" t="s">
         <v>189</v>
@@ -2765,10 +2780,10 @@
         <v>191</v>
       </c>
       <c r="B67" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C67" t="s">
-        <v>193</v>
+        <v>471</v>
       </c>
       <c r="D67" t="s">
         <v>192</v>
@@ -2782,10 +2797,10 @@
         <v>194</v>
       </c>
       <c r="B68" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="C68" t="s">
-        <v>467</v>
+        <v>196</v>
       </c>
       <c r="D68" t="s">
         <v>195</v>
@@ -2799,10 +2814,10 @@
         <v>197</v>
       </c>
       <c r="B69" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C69" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D69" t="s">
         <v>198</v>
@@ -2816,10 +2831,10 @@
         <v>200</v>
       </c>
       <c r="B70" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>473</v>
       </c>
       <c r="D70" t="s">
         <v>201</v>
@@ -2833,10 +2848,10 @@
         <v>203</v>
       </c>
       <c r="B71" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C71" t="s">
-        <v>469</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
         <v>204</v>
@@ -2850,10 +2865,10 @@
         <v>206</v>
       </c>
       <c r="B72" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C72" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D72" t="s">
         <v>207</v>
@@ -2867,10 +2882,10 @@
         <v>209</v>
       </c>
       <c r="B73" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>475</v>
       </c>
       <c r="D73" t="s">
         <v>210</v>
@@ -2884,10 +2899,10 @@
         <v>212</v>
       </c>
       <c r="B74" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C74" t="s">
-        <v>471</v>
+        <v>184</v>
       </c>
       <c r="D74" t="s">
         <v>213</v>
@@ -2901,10 +2916,10 @@
         <v>215</v>
       </c>
       <c r="B75" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="C75" t="s">
-        <v>217</v>
+        <v>476</v>
       </c>
       <c r="D75" t="s">
         <v>216</v>
@@ -2918,10 +2933,10 @@
         <v>218</v>
       </c>
       <c r="B76" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C76" t="s">
-        <v>472</v>
+        <v>220</v>
       </c>
       <c r="D76" t="s">
         <v>219</v>
@@ -2935,10 +2950,10 @@
         <v>221</v>
       </c>
       <c r="B77" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C77" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D77" t="s">
         <v>222</v>
@@ -2952,10 +2967,10 @@
         <v>224</v>
       </c>
       <c r="B78" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C78" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D78" t="s">
         <v>225</v>
@@ -2969,10 +2984,10 @@
         <v>227</v>
       </c>
       <c r="B79" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C79" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D79" t="s">
         <v>228</v>
@@ -2986,10 +3001,10 @@
         <v>230</v>
       </c>
       <c r="B80" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C80" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D80" t="s">
         <v>231</v>
@@ -3003,10 +3018,10 @@
         <v>233</v>
       </c>
       <c r="B81" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C81" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D81" t="s">
         <v>234</v>
@@ -3020,10 +3035,10 @@
         <v>236</v>
       </c>
       <c r="B82" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C82" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D82" t="s">
         <v>237</v>
@@ -3037,10 +3052,10 @@
         <v>239</v>
       </c>
       <c r="B83" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C83" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D83" t="s">
         <v>240</v>
@@ -3054,10 +3069,10 @@
         <v>242</v>
       </c>
       <c r="B84" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C84" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D84" t="s">
         <v>243</v>
@@ -3071,10 +3086,10 @@
         <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C85" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D85" t="s">
         <v>246</v>
@@ -3088,10 +3103,10 @@
         <v>248</v>
       </c>
       <c r="B86" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C86" t="s">
-        <v>250</v>
+        <v>486</v>
       </c>
       <c r="D86" t="s">
         <v>249</v>
@@ -3105,10 +3120,10 @@
         <v>251</v>
       </c>
       <c r="B87" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C87" t="s">
-        <v>482</v>
+        <v>253</v>
       </c>
       <c r="D87" t="s">
         <v>252</v>
@@ -3122,10 +3137,10 @@
         <v>254</v>
       </c>
       <c r="B88" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C88" t="s">
-        <v>256</v>
+        <v>487</v>
       </c>
       <c r="D88" t="s">
         <v>255</v>
@@ -3139,7 +3154,7 @@
         <v>257</v>
       </c>
       <c r="B89" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C89" t="s">
         <v>259</v>
@@ -3156,33 +3171,33 @@
         <v>260</v>
       </c>
       <c r="B90" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C90" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D90" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E90" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" t="s">
+        <v>403</v>
+      </c>
+      <c r="C91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D91" t="s">
         <v>261</v>
       </c>
-      <c r="B91" t="s">
-        <v>399</v>
-      </c>
-      <c r="C91" t="s">
-        <v>483</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>262</v>
-      </c>
-      <c r="E91" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="92">
@@ -3190,10 +3205,10 @@
         <v>264</v>
       </c>
       <c r="B92" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C92" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D92" t="s">
         <v>265</v>
@@ -3207,10 +3222,10 @@
         <v>267</v>
       </c>
       <c r="B93" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C93" t="s">
-        <v>269</v>
+        <v>489</v>
       </c>
       <c r="D93" t="s">
         <v>268</v>
@@ -3224,10 +3239,10 @@
         <v>270</v>
       </c>
       <c r="B94" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C94" t="s">
-        <v>485</v>
+        <v>272</v>
       </c>
       <c r="D94" t="s">
         <v>271</v>
@@ -3241,10 +3256,10 @@
         <v>273</v>
       </c>
       <c r="B95" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C95" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D95" t="s">
         <v>274</v>
@@ -3258,10 +3273,10 @@
         <v>276</v>
       </c>
       <c r="B96" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C96" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D96" t="s">
         <v>277</v>
@@ -3275,10 +3290,10 @@
         <v>279</v>
       </c>
       <c r="B97" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C97" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D97" t="s">
         <v>280</v>
@@ -3292,10 +3307,10 @@
         <v>282</v>
       </c>
       <c r="B98" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C98" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D98" t="s">
         <v>283</v>
@@ -3309,10 +3324,10 @@
         <v>285</v>
       </c>
       <c r="B99" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C99" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D99" t="s">
         <v>286</v>
@@ -3326,10 +3341,10 @@
         <v>288</v>
       </c>
       <c r="B100" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="C100" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D100" t="s">
         <v>289</v>
@@ -3343,10 +3358,10 @@
         <v>291</v>
       </c>
       <c r="B101" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C101" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D101" t="s">
         <v>292</v>
@@ -3360,10 +3375,10 @@
         <v>294</v>
       </c>
       <c r="B102" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="C102" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D102" t="s">
         <v>295</v>
@@ -3377,10 +3392,10 @@
         <v>297</v>
       </c>
       <c r="B103" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C103" t="s">
-        <v>299</v>
+        <v>498</v>
       </c>
       <c r="D103" t="s">
         <v>298</v>
@@ -3394,10 +3409,10 @@
         <v>300</v>
       </c>
       <c r="B104" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="C104" t="s">
-        <v>54</v>
+        <v>302</v>
       </c>
       <c r="D104" t="s">
         <v>301</v>
@@ -3411,10 +3426,10 @@
         <v>303</v>
       </c>
       <c r="B105" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C105" t="s">
-        <v>305</v>
+        <v>54</v>
       </c>
       <c r="D105" t="s">
         <v>304</v>
@@ -3428,10 +3443,10 @@
         <v>306</v>
       </c>
       <c r="B106" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C106" t="s">
-        <v>494</v>
+        <v>308</v>
       </c>
       <c r="D106" t="s">
         <v>307</v>
@@ -3445,10 +3460,10 @@
         <v>309</v>
       </c>
       <c r="B107" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C107" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D107" t="s">
         <v>310</v>
@@ -3462,10 +3477,10 @@
         <v>312</v>
       </c>
       <c r="B108" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C108" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D108" t="s">
         <v>313</v>
@@ -3479,10 +3494,10 @@
         <v>315</v>
       </c>
       <c r="B109" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C109" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D109" t="s">
         <v>316</v>
@@ -3496,10 +3511,10 @@
         <v>318</v>
       </c>
       <c r="B110" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="C110" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D110" t="s">
         <v>319</v>
@@ -3513,33 +3528,33 @@
         <v>321</v>
       </c>
       <c r="B111" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C111" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D111" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E111" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>324</v>
+      </c>
+      <c r="B112" t="s">
+        <v>403</v>
+      </c>
+      <c r="C112" t="s">
+        <v>503</v>
+      </c>
+      <c r="D112" t="s">
         <v>322</v>
       </c>
-      <c r="B112" t="s">
-        <v>416</v>
-      </c>
-      <c r="C112" t="s">
-        <v>499</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>323</v>
-      </c>
-      <c r="E112" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="113">
@@ -3547,10 +3562,10 @@
         <v>325</v>
       </c>
       <c r="B113" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C113" t="s">
-        <v>327</v>
+        <v>504</v>
       </c>
       <c r="D113" t="s">
         <v>326</v>
@@ -3564,10 +3579,10 @@
         <v>328</v>
       </c>
       <c r="B114" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="C114" t="s">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="D114" t="s">
         <v>329</v>
@@ -3581,10 +3596,10 @@
         <v>331</v>
       </c>
       <c r="B115" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C115" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D115" t="s">
         <v>332</v>
@@ -3598,33 +3613,33 @@
         <v>334</v>
       </c>
       <c r="B116" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C116" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D116" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E116" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>337</v>
+      </c>
+      <c r="B117" t="s">
+        <v>403</v>
+      </c>
+      <c r="C117" t="s">
+        <v>506</v>
+      </c>
+      <c r="D117" t="s">
         <v>335</v>
       </c>
-      <c r="B117" t="s">
-        <v>399</v>
-      </c>
-      <c r="C117" t="s">
-        <v>502</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>336</v>
-      </c>
-      <c r="E117" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="118">
@@ -3635,7 +3650,7 @@
         <v>402</v>
       </c>
       <c r="C118" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D118" t="s">
         <v>339</v>
@@ -3649,10 +3664,10 @@
         <v>341</v>
       </c>
       <c r="B119" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C119" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D119" t="s">
         <v>342</v>
@@ -3666,10 +3681,10 @@
         <v>344</v>
       </c>
       <c r="B120" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C120" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D120" t="s">
         <v>345</v>
@@ -3683,10 +3698,10 @@
         <v>347</v>
       </c>
       <c r="B121" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C121" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D121" t="s">
         <v>348</v>
@@ -3700,10 +3715,10 @@
         <v>350</v>
       </c>
       <c r="B122" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="C122" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D122" t="s">
         <v>351</v>
@@ -3717,10 +3732,10 @@
         <v>353</v>
       </c>
       <c r="B123" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="C123" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D123" t="s">
         <v>354</v>
@@ -3737,7 +3752,7 @@
         <v>402</v>
       </c>
       <c r="C124" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D124" t="s">
         <v>357</v>
@@ -3751,10 +3766,10 @@
         <v>359</v>
       </c>
       <c r="B125" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C125" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D125" t="s">
         <v>360</v>
@@ -3768,10 +3783,10 @@
         <v>362</v>
       </c>
       <c r="B126" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C126" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D126" t="s">
         <v>363</v>
@@ -3785,10 +3800,10 @@
         <v>365</v>
       </c>
       <c r="B127" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C127" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D127" t="s">
         <v>366</v>
@@ -3802,10 +3817,10 @@
         <v>368</v>
       </c>
       <c r="B128" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C128" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D128" t="s">
         <v>369</v>
@@ -3819,10 +3834,10 @@
         <v>371</v>
       </c>
       <c r="B129" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C129" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D129" t="s">
         <v>372</v>
@@ -3836,10 +3851,10 @@
         <v>374</v>
       </c>
       <c r="B130" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C130" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D130" t="s">
         <v>375</v>
@@ -3853,10 +3868,10 @@
         <v>377</v>
       </c>
       <c r="B131" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C131" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D131" t="s">
         <v>378</v>
@@ -3870,10 +3885,10 @@
         <v>380</v>
       </c>
       <c r="B132" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="C132" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D132" t="s">
         <v>381</v>
@@ -3887,10 +3902,10 @@
         <v>383</v>
       </c>
       <c r="B133" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="C133" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D133" t="s">
         <v>384</v>
@@ -3904,33 +3919,33 @@
         <v>386</v>
       </c>
       <c r="B134" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C134" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D134" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E134" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>389</v>
+      </c>
+      <c r="B135" t="s">
+        <v>403</v>
+      </c>
+      <c r="C135" t="s">
+        <v>523</v>
+      </c>
+      <c r="D135" t="s">
         <v>387</v>
       </c>
-      <c r="B135" t="s">
-        <v>399</v>
-      </c>
-      <c r="C135" t="s">
-        <v>519</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>388</v>
-      </c>
-      <c r="E135" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="136">
@@ -3938,10 +3953,10 @@
         <v>390</v>
       </c>
       <c r="B136" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="C136" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D136" t="s">
         <v>391</v>
@@ -3955,10 +3970,10 @@
         <v>393</v>
       </c>
       <c r="B137" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C137" t="s">
-        <v>395</v>
+        <v>525</v>
       </c>
       <c r="D137" t="s">
         <v>394</v>
@@ -3972,16 +3987,33 @@
         <v>396</v>
       </c>
       <c r="B138" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="C138" t="s">
-        <v>521</v>
+        <v>398</v>
       </c>
       <c r="D138" t="s">
         <v>397</v>
       </c>
       <c r="E138" t="s">
         <v>398</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>399</v>
+      </c>
+      <c r="B139" t="s">
+        <v>402</v>
+      </c>
+      <c r="C139" t="s">
+        <v>526</v>
+      </c>
+      <c r="D139" t="s">
+        <v>400</v>
+      </c>
+      <c r="E139" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/Category.xlsx
+++ b/Original/CN/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/Original/CN/Game/Category.xlsx
+++ b/Original/CN/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>
